--- a/docs/StructureDefinition-VAPatientRecordFlag.xlsx
+++ b/docs/StructureDefinition-VAPatientRecordFlag.xlsx
@@ -331,6 +331,71 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>flagSourceDocument</t>
+  </si>
+  <si>
+    <t>TIU PN TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/flagSourceDocument}
+</t>
+  </si>
+  <si>
+    <t>TIU Title - Local (Progress Note Title)</t>
+  </si>
+  <si>
+    <t>This field contains the Category II Progress Note Title that is associated with this Patient Record Flag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PRF LOCAL FLAG FILE @TIU PN TITLE 26.11-.07</t>
+  </si>
+  <si>
+    <t>flag-owner</t>
+  </si>
+  <si>
+    <t>OWNER SITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/flag-owner}
+</t>
+  </si>
+  <si>
+    <t>Owner Site</t>
+  </si>
+  <si>
+    <t>This field contains the current site that owns this patient flag assignment. Patient assignments may only be edited by the owner site. The owner site normally corresponds to the site providing primary care to the patient.</t>
+  </si>
+  <si>
+    <t>PRF ASSIGNMENT FILE @OWNER SITE 26.13-.04</t>
+  </si>
+  <si>
+    <t>flag-nextReviewDate</t>
+  </si>
+  <si>
+    <t>REVIEW DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/flag-nextReviewDate}
+</t>
+  </si>
+  <si>
+    <t>Next Review Date</t>
+  </si>
+  <si>
+    <t>This field will contain the date that the flag assignment is due for  review to determine continuing appropriateness.</t>
+  </si>
+  <si>
+    <t>PRF ASSIGNMENT FILE @REVIEW DATE 26.13-.06</t>
+  </si>
+  <si>
     <t>flag-rationale</t>
   </si>
   <si>
@@ -347,72 +412,7 @@
     <t>This word processing field contains the patient record flag assignment narrative text. The assignment narrative text is a description of the incident or reason that generated the need for this patient record flag assignment.  The description is followed by recommended actions that should be performed by a person working with this specific patient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PRF ASSIGNMENT FILE @ASSIGNMENT NARRATIVE 26.13-1</t>
-  </si>
-  <si>
-    <t>flag-nextReviewDate</t>
-  </si>
-  <si>
-    <t>REVIEW DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/flag-nextReviewDate}
-</t>
-  </si>
-  <si>
-    <t>Next Review Date</t>
-  </si>
-  <si>
-    <t>This field will contain the date that the flag assignment is due for  review to determine continuing appropriateness.</t>
-  </si>
-  <si>
-    <t>PRF ASSIGNMENT FILE @REVIEW DATE 26.13-.06</t>
-  </si>
-  <si>
-    <t>flag-owner</t>
-  </si>
-  <si>
-    <t>OWNER SITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/flag-owner}
-</t>
-  </si>
-  <si>
-    <t>Owner Site</t>
-  </si>
-  <si>
-    <t>This field contains the current site that owns this patient flag assignment. Patient assignments may only be edited by the owner site. The owner site normally corresponds to the site providing primary care to the patient.</t>
-  </si>
-  <si>
-    <t>PRF ASSIGNMENT FILE @OWNER SITE 26.13-.04</t>
-  </si>
-  <si>
-    <t>flagSourceDocument</t>
-  </si>
-  <si>
-    <t>TIU PN TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/flagSourceDocument}
-</t>
-  </si>
-  <si>
-    <t>TIU Title - Local (Progress Note Title)</t>
-  </si>
-  <si>
-    <t>This field contains the Category II Progress Note Title that is associated with this Patient Record Flag.</t>
-  </si>
-  <si>
-    <t>PRF LOCAL FLAG FILE @TIU PN TITLE 26.11-.07</t>
   </si>
   <si>
     <t>Flag.modifierExtension</t>
